--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>scenariosId</t>
+    <t>carSource</t>
+  </si>
+  <si>
+    <t>velocity</t>
   </si>
   <si>
     <t>dimensions</t>
@@ -28,37 +31,49 @@
     <t>skills</t>
   </si>
   <si>
+    <t>CostPerDistance</t>
+  </si>
+  <si>
+    <t>cost_per_time</t>
+  </si>
+  <si>
+    <t>DurationUnloadFull</t>
+  </si>
+  <si>
+    <t>fixed_cost</t>
+  </si>
+  <si>
+    <t>FixedRound</t>
+  </si>
+  <si>
+    <t>FixedRoundFee</t>
+  </si>
+  <si>
+    <t>MaxLoad</t>
+  </si>
+  <si>
+    <t>max_running_time</t>
+  </si>
+  <si>
+    <t>maxStop</t>
+  </si>
+  <si>
+    <t>start_location</t>
+  </si>
+  <si>
+    <t>end_location</t>
+  </si>
+  <si>
+    <t>max_distance</t>
+  </si>
+  <si>
+    <t>cost_per_distance</t>
+  </si>
+  <si>
     <t>tw_start</t>
   </si>
   <si>
     <t>tw_end</t>
-  </si>
-  <si>
-    <t>start_location</t>
-  </si>
-  <si>
-    <t>end_location</t>
-  </si>
-  <si>
-    <t>max_distance</t>
-  </si>
-  <si>
-    <t>max_running_time</t>
-  </si>
-  <si>
-    <t>cost_per_distance</t>
-  </si>
-  <si>
-    <t>cost_per_time</t>
-  </si>
-  <si>
-    <t>fixed_cost</t>
-  </si>
-  <si>
-    <t>maxStop</t>
-  </si>
-  <si>
-    <t>velocity</t>
   </si>
   <si>
     <t>1.5T</t>
@@ -77,8 +92,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +104,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,39 +127,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,9 +143,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,55 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,22 +245,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,19 +257,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,139 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,19 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +448,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +477,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +520,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,50 +548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,27 +1053,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:15">
+    <row r="1" ht="33" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,145 +1118,148 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>800</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2">
-        <v>10000</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>10000</v>
       </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
         <v>800</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3">
-        <v>10000</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <v>10000</v>
       </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>10000</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>800</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
       <c r="I4">
-        <v>10000</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <v>10000</v>
       </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4">
+        <v>10000</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>800</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
       <c r="I5">
-        <v>10000</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>10000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <v>10000</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>type</t>
   </si>
@@ -79,10 +79,22 @@
     <t>1.5T</t>
   </si>
   <si>
+    <t>571AA</t>
+  </si>
+  <si>
+    <t>571JC</t>
+  </si>
+  <si>
+    <t>571AM</t>
+  </si>
+  <si>
     <t>571D</t>
   </si>
   <si>
-    <t>571HB</t>
+    <t>571AF</t>
+  </si>
+  <si>
+    <t>571AC</t>
   </si>
 </sst>
 </file>
@@ -104,9 +116,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,113 +224,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,31 +269,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,49 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,73 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,21 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,17 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,9 +513,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +551,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="B2:C5 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1138,13 +1150,40 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>800</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
@@ -1158,6 +1197,9 @@
       </c>
       <c r="Q2">
         <v>10000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1170,26 +1212,56 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>800</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <v>10000</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
       </c>
       <c r="Q3">
         <v>10000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1202,26 +1274,56 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>800</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <v>10000</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q4">
         <v>10000</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1234,26 +1336,56 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>800</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>10000</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>10000</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>

--- a/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
+++ b/xboost/com.xboost.business/src/main/webapp/static/excelTemplate/car.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19905" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>type</t>
   </si>
@@ -104,8 +107,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,7 +126,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -139,13 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -154,8 +178,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,98 +196,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +463,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,6 +524,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -521,45 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,27 +1068,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:C5 D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="19" max="19" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:21">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1145,23 +1148,23 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>800</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -1187,43 +1190,43 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>10000</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
         <v>10000</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+    <row r="3" spans="2:21">
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>800</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -1249,43 +1252,43 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>10000</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10000</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+    <row r="4" spans="2:21">
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>800</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -1311,43 +1314,43 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>10000</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
       </c>
       <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4">
         <v>10000</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+    <row r="5" spans="2:21">
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>800</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -1373,24 +1376,27 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>10000</v>
       </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
       <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5">
         <v>10000</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>24</v>
       </c>
     </row>
